--- a/public/data/profit/profit_table_south_sudan.xlsx
+++ b/public/data/profit/profit_table_south_sudan.xlsx
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-19.89</v>
+        <v>23.57</v>
       </c>
       <c r="G2" t="n">
-        <v>-44.03</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>62.47</v>
+        <v>190.78</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-99.75</v>
+        <v>-129.61</v>
       </c>
       <c r="L2" t="n">
-        <v>-100.97</v>
+        <v>-120.43</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-95.72</v>
+        <v>-121.22</v>
       </c>
       <c r="O2" t="n">
-        <v>-130.87</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-100.44</v>
+        <v>-130.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>271.95</v>
+        <v>953.53</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-98.03</v>
+        <v>-124.41</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.13</v>
+        <v>122.1</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-75.3</v>
+        <v>-57.18</v>
       </c>
     </row>
     <row r="3">
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>219.23</v>
+        <v>323.57</v>
       </c>
       <c r="G3" t="n">
-        <v>-52.46</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>135.26</v>
+        <v>229.52</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1400,25 +1400,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-198.98</v>
+        <v>-133.32</v>
       </c>
       <c r="L3" t="n">
-        <v>-155.84</v>
+        <v>-95.99</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-184.58</v>
+        <v>-111.72</v>
       </c>
       <c r="O3" t="n">
-        <v>-198.16</v>
+        <v>-165.32</v>
       </c>
       <c r="P3" t="n">
-        <v>-210.33</v>
+        <v>-147.97</v>
       </c>
       <c r="Q3" t="n">
-        <v>415.35</v>
+        <v>716.92</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-203.12</v>
+        <v>-138.21</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>203.33</v>
+        <v>426.51</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-171.65</v>
+        <v>-94.51</v>
       </c>
     </row>
     <row r="4">
@@ -1459,73 +1459,73 @@
         <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>-327.26</v>
+        <v>-281.74</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>852.65</v>
+        <v>829.66</v>
       </c>
       <c r="G4" t="n">
-        <v>-132.18</v>
+        <v>-67.07</v>
       </c>
       <c r="H4" t="n">
-        <v>499.89</v>
+        <v>508.91</v>
       </c>
       <c r="I4" t="n">
-        <v>-237.52</v>
+        <v>-214.23</v>
       </c>
       <c r="J4" t="n">
-        <v>-317.54</v>
+        <v>-270.23</v>
       </c>
       <c r="K4" t="n">
-        <v>-169.95</v>
+        <v>-115.11</v>
       </c>
       <c r="L4" t="n">
-        <v>65.27</v>
+        <v>63.02</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-206.43</v>
+        <v>-134.03</v>
       </c>
       <c r="O4" t="n">
-        <v>-450.07</v>
+        <v>-386.61</v>
       </c>
       <c r="P4" t="n">
-        <v>-245.7</v>
+        <v>-187.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>930.21</v>
+        <v>1381.14</v>
       </c>
       <c r="R4" t="n">
-        <v>-323.84</v>
+        <v>-276.99</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-236.01</v>
+        <v>-174.09</v>
       </c>
       <c r="U4" t="n">
-        <v>-44.95</v>
+        <v>-34.76</v>
       </c>
       <c r="V4" t="n">
-        <v>-202.9</v>
+        <v>-128.35</v>
       </c>
       <c r="W4" t="n">
-        <v>525.13</v>
+        <v>824.66</v>
       </c>
       <c r="X4" t="n">
-        <v>-215.56</v>
+        <v>-260.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>-84.64</v>
+        <v>68.81</v>
       </c>
       <c r="Z4" t="n">
-        <v>-167.76</v>
+        <v>-89.37</v>
       </c>
     </row>
     <row r="5">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.24</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.37</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-42.12</v>
+        <v>29.6</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>64.06</v>
+        <v>352.2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1640,34 +1640,34 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-115.9</v>
+        <v>-163.75</v>
       </c>
       <c r="L6" t="n">
-        <v>-94.44</v>
+        <v>-99.58</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-110.22</v>
+        <v>-145.31</v>
       </c>
       <c r="O6" t="n">
-        <v>-149.18</v>
+        <v>-130.9</v>
       </c>
       <c r="P6" t="n">
-        <v>-99.46</v>
+        <v>-76.41</v>
       </c>
       <c r="Q6" t="n">
-        <v>301.4</v>
+        <v>1935.87</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-57.25</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-115.39</v>
+        <v>-159.39</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>24.54</v>
+        <v>221.04</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-114.01</v>
+        <v>-268.11</v>
       </c>
     </row>
     <row r="7">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-35.32</v>
+        <v>52.84</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-44.51</v>
+        <v>19.62</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1800,25 +1800,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-116.29</v>
+        <v>-83.29</v>
       </c>
       <c r="L8" t="n">
-        <v>-135.29</v>
+        <v>-111.77</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-111.2</v>
+        <v>-69.78</v>
       </c>
       <c r="O8" t="n">
-        <v>-164.8</v>
+        <v>-201.38</v>
       </c>
       <c r="P8" t="n">
-        <v>-118.59</v>
+        <v>-90.11</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.74</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-116.44</v>
+        <v>-84.12</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.18</v>
+        <v>262.9</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-88.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-22.97</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-24.36</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1945,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-44.08</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-43.83</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-44.77</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2025,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-60.73</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-14.34</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-63.05</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-52.9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-52.52</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-53.61</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2185,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-22.07</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-21.83</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-22.45</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2345,13 +2345,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-32.58</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.79</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-33.18</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2505,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-60.05</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-59.54</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-60.89</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5.71</v>
+        <v>48.95</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-22.84</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-38.1</v>
+        <v>-32.27</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-25.52</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-27.1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.07</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-26.75</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2745,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-41.82</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-41.61</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-42.59</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3145,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-38.86</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-38.67</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-39.19</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3225,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-56.45</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-56.42</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-56.45</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-26.26</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-25.8</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-26.92</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-27.04</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-26.69</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-27.6</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -4345,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-49.87</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-56.42</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-49.9</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4425,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>189.34</v>
+        <v>923.39</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>169.63</v>
+        <v>995</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4440,25 +4440,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-47.63</v>
+        <v>-64.4</v>
       </c>
       <c r="L41" t="n">
-        <v>57.33</v>
+        <v>321.32</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-31.79</v>
+        <v>-7.76</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-45.74</v>
+        <v>-147.39</v>
       </c>
       <c r="Q41" t="n">
-        <v>338.64</v>
+        <v>1146.4</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-50.42</v>
+        <v>-73.45</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>348.61</v>
+        <v>1953.06</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>-105.48</v>
+        <v>-29.38</v>
       </c>
     </row>
     <row r="42">
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>35.04</v>
+        <v>88.73</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4520,25 +4520,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>-55.07</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-91.29</v>
+        <v>-60.28</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-53.54</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-12.61</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.93</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-55.51</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4579,73 +4579,73 @@
         <v>133</v>
       </c>
       <c r="D43" t="n">
-        <v>-238.69</v>
+        <v>-118.99</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>796.24</v>
+        <v>861.52</v>
       </c>
       <c r="G43" t="n">
-        <v>-64.47</v>
+        <v>-41.39</v>
       </c>
       <c r="H43" t="n">
-        <v>418.63</v>
+        <v>478.98</v>
       </c>
       <c r="I43" t="n">
-        <v>-101.93</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-243.38</v>
+        <v>-125.51</v>
       </c>
       <c r="K43" t="n">
-        <v>-223.82</v>
+        <v>-124.13</v>
       </c>
       <c r="L43" t="n">
-        <v>-14.59</v>
+        <v>42.05</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-209.29</v>
+        <v>-107.61</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-258.64</v>
+        <v>-163.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>192.65</v>
+        <v>772.66</v>
       </c>
       <c r="R43" t="n">
-        <v>-242.44</v>
+        <v>-124.23</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-248.94</v>
+        <v>-152.43</v>
       </c>
       <c r="U43" t="n">
-        <v>-215.82</v>
+        <v>-104.81</v>
       </c>
       <c r="V43" t="n">
-        <v>-100.25</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>507.05</v>
+        <v>701.25</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-121.97</v>
+        <v>34.33</v>
       </c>
       <c r="Z43" t="n">
-        <v>-190.27</v>
+        <v>-90.25</v>
       </c>
     </row>
     <row r="44">
@@ -4665,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>456.62</v>
+        <v>613.27</v>
       </c>
       <c r="G44" t="n">
-        <v>-48.82</v>
+        <v>-43.35</v>
       </c>
       <c r="H44" t="n">
-        <v>347.44</v>
+        <v>463.39</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4680,25 +4680,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>-141.34</v>
+        <v>-115.15</v>
       </c>
       <c r="L44" t="n">
-        <v>-5.92</v>
+        <v>36.58</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-123.43</v>
+        <v>-85.05</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-157.74</v>
+        <v>-135.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>779.13</v>
+        <v>1251.36</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-151.03</v>
+        <v>-125.63</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>435.77</v>
+        <v>782.96</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>-99.38</v>
+        <v>-46.59</v>
       </c>
     </row>
     <row r="45">
@@ -4739,73 +4739,73 @@
         <v>135</v>
       </c>
       <c r="D45" t="n">
-        <v>-82.69</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>803.93</v>
+        <v>929.81</v>
       </c>
       <c r="G45" t="n">
-        <v>-50.83</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>497.37</v>
+        <v>568.89</v>
       </c>
       <c r="I45" t="n">
-        <v>-11.72</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>-101.49</v>
+        <v>-53.62</v>
       </c>
       <c r="K45" t="n">
-        <v>-167.36</v>
+        <v>-97.55</v>
       </c>
       <c r="L45" t="n">
-        <v>39.05</v>
+        <v>92.77</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-152.69</v>
+        <v>-80.05</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-204.8</v>
+        <v>-138.52</v>
       </c>
       <c r="Q45" t="n">
-        <v>-187.9</v>
+        <v>-130.38</v>
       </c>
       <c r="R45" t="n">
-        <v>-101.35</v>
+        <v>-53.01</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-196.11</v>
+        <v>-129.09</v>
       </c>
       <c r="U45" t="n">
-        <v>-144.46</v>
+        <v>-44.87</v>
       </c>
       <c r="V45" t="n">
-        <v>-26.54</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>540.23</v>
+        <v>786.4</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-65.2</v>
+        <v>86.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>-140.66</v>
+        <v>-68.92</v>
       </c>
     </row>
     <row r="46">
@@ -4819,73 +4819,73 @@
         <v>136</v>
       </c>
       <c r="D46" t="n">
-        <v>-128.54</v>
+        <v>-88.33</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>689.79</v>
+        <v>770.73</v>
       </c>
       <c r="G46" t="n">
-        <v>-35.9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>601.49</v>
+        <v>656.65</v>
       </c>
       <c r="I46" t="n">
-        <v>-38.05</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-128.33</v>
+        <v>-92.19</v>
       </c>
       <c r="K46" t="n">
-        <v>-202.99</v>
+        <v>-128.79</v>
       </c>
       <c r="L46" t="n">
-        <v>3.56</v>
+        <v>53.11</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-179.29</v>
+        <v>-99.39</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-218.37</v>
+        <v>-145.3</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-127.97</v>
+        <v>-91.7</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-218.2</v>
+        <v>-135.53</v>
       </c>
       <c r="U46" t="n">
-        <v>-144.17</v>
+        <v>-43.99</v>
       </c>
       <c r="V46" t="n">
-        <v>-39.74</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>475.07</v>
+        <v>648.22</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-87.55</v>
+        <v>49.56</v>
       </c>
       <c r="Z46" t="n">
-        <v>-173.57</v>
+        <v>-74.8</v>
       </c>
     </row>
   </sheetData>
